--- a/ComputerVision Basic.xlsx
+++ b/ComputerVision Basic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive - Hanoi University of Science and Technology\Desktop\Learn OpenCV\Learn_OpenCV_Arrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767AC63A-D149-43FF-BB50-566F2E355202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F82B172-FED8-424C-BD27-B6A51469ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Estimate (h)</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>17/6/2024</t>
+  </si>
+  <si>
+    <t>25/6/2024</t>
+  </si>
+  <si>
+    <t>18,24/6/2024</t>
   </si>
 </sst>
 </file>
@@ -573,15 +579,15 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="46.90625" customWidth="1"/>
     <col min="4" max="4" width="42.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="16"/>
+    <col min="5" max="5" width="15.6328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -888,7 +894,9 @@
       <c r="D28" s="10">
         <v>3</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.5">
       <c r="A29" s="18"/>
@@ -908,7 +916,9 @@
       <c r="D30" s="10">
         <v>5</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.5">
       <c r="A31" s="19"/>

--- a/ComputerVision Basic.xlsx
+++ b/ComputerVision Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive - Hanoi University of Science and Technology\Desktop\Learn OpenCV\Learn_OpenCV_Arrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F82B172-FED8-424C-BD27-B6A51469ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7BBFF3-8969-4B25-9CAB-94F226CD4BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Estimate (h)</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>18,24/6/2024</t>
+  </si>
+  <si>
+    <t>Meanshift and Camshift</t>
+  </si>
+  <si>
+    <t>27/6/2024</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E19"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -921,33 +927,35 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.5">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="4"/>
       <c r="C31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.5">
+      <c r="A32" s="19"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.5">
-      <c r="A32" s="11">
-        <v>3</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="14"/>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" ht="15.5">
       <c r="A33" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -955,10 +963,10 @@
     </row>
     <row r="34" spans="1:5" ht="15.5">
       <c r="A34" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -966,10 +974,10 @@
     </row>
     <row r="35" spans="1:5" ht="15.5">
       <c r="A35" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -977,22 +985,34 @@
     </row>
     <row r="36" spans="1:5" ht="15.5">
       <c r="A36" s="11">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="14"/>
     </row>
+    <row r="37" spans="1:5" ht="15.5">
+      <c r="A37" s="11">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="A5:A32"/>
     <mergeCell ref="E7:E19"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ComputerVision Basic.xlsx
+++ b/ComputerVision Basic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive - Hanoi University of Science and Technology\Desktop\Learn OpenCV\Learn_OpenCV_Arrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7BBFF3-8969-4B25-9CAB-94F226CD4BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF8BD85-D011-437C-B4E5-FBA523ACEEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
